--- a/biology/Biochimie/Petro_Terblanche/Petro_Terblanche.xlsx
+++ b/biology/Biochimie/Petro_Terblanche/Petro_Terblanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petro Terblanche, née en 1959 à Brits, est une scientifique sud-africaine et la directrice générale d’Afrigen, une société de biotechnologie qui a mis au point un vaccin contre le COVID-19, en utilisant le concept d'ARN messager. Afrigen participe à une diffusion du savoir-faire sur cette technologie d’ARN messager vers les pays non-occidentaux. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petro Terblanche est née le 2 février 1959 à Brits, dans la province du Nord-Ouest de l'Afrique du Sud[1]. Elle est la fille de Jacobus Petrus et de Maria Susanna (Meyer) Terblanche[2] , des parents de condition modeste, en partie d’origine huguenote, qui tiennent une exploitation agricole[1]. Sa langue maternelle est l’afrikaans[1]. Elle effectue un doctorat en cancérologie à l’université de Pretoria[1],[3], puis consacre 6 mois à Harvard, comme scientifique invitée, à étudier les problématiques de santé publique[1],[3]. Elle y suit la libération de Nelson Mandela,  la fin du régime de l’apartheid etle début d’une trasition démocratique en Afrique du Sud[1]. 
-Elle décide en 1990 de rentrer en Afrique du Sud[1]. Elle y exerce comme chercheur, enseignante à l’université du Nord-Ouest et participe à différentes institutions scientifiques[3]. En 2018, elle devient directrice générale d’une petite société de biotechnologie, comptant 8 salariés, Afrigen[1]. En 2020, une pandémie, la pandémie de Covid-19, touche une grande partie du monde. Des vaccins sont rapidement mis au point, utilisant notamment en utilisant le concept d'ARN messager. Les Sud-Africains ont des difficultés à disposer de ces vaccins. S’inscrivant dans le programme COVAX, Afrigen réussit à mettre au point un vaccin contre le COVID-19, en utilisant le concept d'ARN messager[4]. Puis l’entreprise participe à une diffusion du savoir-faire sur cette technologie d’ARN messager vers les pays non-occidentaux[1],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petro Terblanche est née le 2 février 1959 à Brits, dans la province du Nord-Ouest de l'Afrique du Sud. Elle est la fille de Jacobus Petrus et de Maria Susanna (Meyer) Terblanche , des parents de condition modeste, en partie d’origine huguenote, qui tiennent une exploitation agricole. Sa langue maternelle est l’afrikaans. Elle effectue un doctorat en cancérologie à l’université de Pretoria puis consacre 6 mois à Harvard, comme scientifique invitée, à étudier les problématiques de santé publique,. Elle y suit la libération de Nelson Mandela,  la fin du régime de l’apartheid etle début d’une trasition démocratique en Afrique du Sud. 
+Elle décide en 1990 de rentrer en Afrique du Sud. Elle y exerce comme chercheur, enseignante à l’université du Nord-Ouest et participe à différentes institutions scientifiques. En 2018, elle devient directrice générale d’une petite société de biotechnologie, comptant 8 salariés, Afrigen. En 2020, une pandémie, la pandémie de Covid-19, touche une grande partie du monde. Des vaccins sont rapidement mis au point, utilisant notamment en utilisant le concept d'ARN messager. Les Sud-Africains ont des difficultés à disposer de ces vaccins. S’inscrivant dans le programme COVAX, Afrigen réussit à mettre au point un vaccin contre le COVID-19, en utilisant le concept d'ARN messager. Puis l’entreprise participe à une diffusion du savoir-faire sur cette technologie d’ARN messager vers les pays non-occidentaux,.
 </t>
         </is>
       </c>
